--- a/testData/WebForm/WF_RRUserYN_OneConditionYN_Test.xlsx
+++ b/testData/WebForm/WF_RRUserYN_OneConditionYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>9840022196</t>
+  </si>
+  <si>
+    <t>9840036579</t>
+  </si>
+  <si>
+    <t>9840093161</t>
+  </si>
+  <si>
+    <t>9840050368</t>
   </si>
 </sst>
 </file>
@@ -589,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -902,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1080,6 +1092,9 @@
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F7" t="s" s="0">
+        <v>76</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1120,7 @@
         <v>48</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.35">
@@ -1212,6 +1227,9 @@
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>77</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>56</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
